--- a/8node_spain/output_a.xlsx
+++ b/8node_spain/output_a.xlsx
@@ -473,25 +473,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>29.71206017149762</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>29.71296157326548</v>
+        <v>3.00944912838124e-09</v>
       </c>
       <c r="E2" t="n">
-        <v>29.71104764773819</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>29.70984108326675</v>
+        <v>1.185948866153425e-08</v>
       </c>
       <c r="G2" t="n">
-        <v>29.72163055209077</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>29.72198851648109</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>29.71157103220798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -501,28 +501,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.71206017149762</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>29.70379187925403</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>29.71531790422872</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>29.71045051544271</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29.72005756102127</v>
+        <v>50.60708628667947</v>
       </c>
       <c r="H3" t="n">
-        <v>29.7201507641629</v>
+        <v>47.5758476310244</v>
       </c>
       <c r="I3" t="n">
-        <v>29.70691669388894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -532,28 +532,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29.71296157326548</v>
+        <v>3.00944912838124e-09</v>
       </c>
       <c r="C4" t="n">
-        <v>29.70379187925403</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>29.71481097217745</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>29.70827349801583</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>48.08136804587951</v>
       </c>
       <c r="H4" t="n">
-        <v>29.72007519009685</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>59.40752278766345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -563,28 +563,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>29.71104764773819</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>29.71531790422872</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>29.71481097217745</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>29.71015860125624</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>29.7185197123696</v>
+        <v>40.52560710199968</v>
       </c>
       <c r="H5" t="n">
-        <v>29.71872928482311</v>
+        <v>37.50980753434075</v>
       </c>
       <c r="I5" t="n">
-        <v>29.71326968603702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -594,28 +594,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.70984108326675</v>
+        <v>1.185948866153425e-08</v>
       </c>
       <c r="C6" t="n">
-        <v>29.71045051544271</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>29.70827349801583</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>29.71015860125624</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>29.71944006679782</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>29.7195836210833</v>
+        <v>46.90895401934973</v>
       </c>
       <c r="I6" t="n">
-        <v>29.70264683584971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -625,28 +625,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.72163055209077</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>29.72005756102127</v>
+        <v>50.60708628667947</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>48.08136804587951</v>
       </c>
       <c r="E7" t="n">
-        <v>29.7185197123696</v>
+        <v>40.52560710199968</v>
       </c>
       <c r="F7" t="n">
-        <v>29.71944006679782</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>29.69890264259435</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>59.42717946966477</v>
+        <v>44.02075626696739</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29.72198851648109</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>29.7201507641629</v>
+        <v>47.5758476310244</v>
       </c>
       <c r="D8" t="n">
-        <v>29.72007519009685</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>29.71872928482311</v>
+        <v>37.50980753434075</v>
       </c>
       <c r="F8" t="n">
-        <v>29.7195836210833</v>
+        <v>46.90895401934973</v>
       </c>
       <c r="G8" t="n">
-        <v>29.69890264259435</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>29.71987581739463</v>
+        <v>46.99647783363517</v>
       </c>
     </row>
     <row r="9">
@@ -687,25 +687,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>29.71157103220798</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>29.70691669388894</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>59.40752278766345</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>29.71326968603702</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>29.70264683584971</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>59.42717946966477</v>
+        <v>44.02075626696739</v>
       </c>
       <c r="H9" t="n">
-        <v>29.71987581739463</v>
+        <v>46.99647783363517</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>

--- a/8node_spain/output_a.xlsx
+++ b/8node_spain/output_a.xlsx
@@ -476,13 +476,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>3.00944912838124e-09</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.185948866153425e-08</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -516,10 +516,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>50.60708628667947</v>
+        <v>28.17704188467945</v>
       </c>
       <c r="H3" t="n">
-        <v>47.5758476310244</v>
+        <v>20.65093526060551</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.00944912838124e-09</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -541,16 +541,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>2.447017094934841e-08</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>48.08136804587951</v>
+        <v>23.21271647117545</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>16.19286578342044</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -569,19 +569,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2.447017094934841e-08</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>11.29408373952029</v>
       </c>
       <c r="G5" t="n">
-        <v>40.52560710199968</v>
+        <v>17.95850381196586</v>
       </c>
       <c r="H5" t="n">
-        <v>37.50980753434075</v>
+        <v>24.84525715597397</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.185948866153425e-08</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -603,16 +603,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>11.29408373952029</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>10.29038269761011</v>
       </c>
       <c r="H6" t="n">
-        <v>46.90895401934973</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -628,16 +628,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>50.60708628667947</v>
+        <v>28.17704188467945</v>
       </c>
       <c r="D7" t="n">
-        <v>48.08136804587951</v>
+        <v>23.21271647117545</v>
       </c>
       <c r="E7" t="n">
-        <v>40.52560710199968</v>
+        <v>17.95850381196586</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>10.29038269761011</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>44.02075626696739</v>
+        <v>16.76325641565834</v>
       </c>
     </row>
     <row r="8">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>47.5758476310244</v>
+        <v>20.65093526060551</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>16.19286578342044</v>
       </c>
       <c r="E8" t="n">
-        <v>37.50980753434075</v>
+        <v>24.84525715597397</v>
       </c>
       <c r="F8" t="n">
-        <v>46.90895401934973</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>46.99647783363517</v>
+        <v>21.62916981622616</v>
       </c>
     </row>
     <row r="9">
@@ -702,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>44.02075626696739</v>
+        <v>16.76325641565834</v>
       </c>
       <c r="H9" t="n">
-        <v>46.99647783363517</v>
+        <v>21.62916981622616</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>

--- a/8node_spain/output_a.xlsx
+++ b/8node_spain/output_a.xlsx
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.450340058271589e-08</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -516,10 +516,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>28.17704188467945</v>
+        <v>36.98554495056295</v>
       </c>
       <c r="H3" t="n">
-        <v>20.65093526060551</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -541,19 +541,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.447017094934841e-08</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.21271647117545</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>16.19286578342044</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>11.17004962369128</v>
       </c>
     </row>
     <row r="5">
@@ -569,19 +569,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2.447017094934841e-08</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>11.29408373952029</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>17.95850381196586</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>24.84525715597397</v>
+        <v>13.55117343019618</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -603,16 +603,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>11.29408373952029</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>10.29038269761011</v>
+        <v>10.29038269963711</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>23.46430640971666</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -628,25 +628,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>28.17704188467945</v>
+        <v>36.98554495056295</v>
       </c>
       <c r="D7" t="n">
-        <v>23.21271647117545</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>17.95850381196586</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>10.29038269761011</v>
+        <v>10.29038269963711</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>8.808503108192442</v>
       </c>
       <c r="I7" t="n">
-        <v>16.76325641565834</v>
+        <v>11.17004962369128</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1.450340058271589e-08</v>
       </c>
       <c r="C8" t="n">
-        <v>20.65093526060551</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>16.19286578342044</v>
       </c>
       <c r="E8" t="n">
-        <v>24.84525715597397</v>
+        <v>13.55117343019618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>23.46430640971666</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>8.808503108192442</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>21.62916981622616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>11.17004962369128</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -702,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>16.76325641565834</v>
+        <v>11.17004962369128</v>
       </c>
       <c r="H9" t="n">
-        <v>21.62916981622616</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>

--- a/8node_spain/output_a.xlsx
+++ b/8node_spain/output_a.xlsx
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.450340058271589e-08</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -513,13 +513,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.689122860863488e-09</v>
       </c>
       <c r="G3" t="n">
-        <v>36.98554495056295</v>
+        <v>28.17704182552777</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>20.65093525419323</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>23.21271746461933</v>
       </c>
       <c r="H4" t="n">
         <v>16.19286578342044</v>
       </c>
       <c r="I4" t="n">
-        <v>11.17004962369128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -578,10 +578,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>17.95850381196586</v>
       </c>
       <c r="H5" t="n">
-        <v>13.55117343019618</v>
+        <v>13.5511734331143</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2.689122860863488e-09</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -609,13 +609,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>10.29038269963711</v>
+        <v>18.54591470160023</v>
       </c>
       <c r="H6" t="n">
         <v>23.46430640971666</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>8.255532014288399</v>
       </c>
     </row>
     <row r="7">
@@ -628,25 +628,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>36.98554495056295</v>
+        <v>28.17704182552777</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>23.21271746461933</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>17.95850381196586</v>
       </c>
       <c r="F7" t="n">
-        <v>10.29038269963711</v>
+        <v>18.54591470160023</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>8.808503108192442</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>11.17004962369128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.450340058271589e-08</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>20.65093525419323</v>
       </c>
       <c r="D8" t="n">
         <v>16.19286578342044</v>
       </c>
       <c r="E8" t="n">
-        <v>13.55117343019618</v>
+        <v>13.5511734331143</v>
       </c>
       <c r="F8" t="n">
         <v>23.46430640971666</v>
       </c>
       <c r="G8" t="n">
-        <v>8.808503108192442</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>21.62916983090976</v>
       </c>
     </row>
     <row r="9">
@@ -693,19 +693,19 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>11.17004962369128</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>8.255532014288399</v>
       </c>
       <c r="G9" t="n">
-        <v>11.17004962369128</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>21.62916983090976</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>

--- a/8node_spain/output_a.xlsx
+++ b/8node_spain/output_a.xlsx
@@ -507,19 +507,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.0003978386713523962</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2.689122860863488e-09</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>28.17704182552777</v>
+        <v>2.016951252558324</v>
       </c>
       <c r="H3" t="n">
-        <v>20.65093525419323</v>
+        <v>0.2031221295889138</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.0003978386713523962</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -547,10 +547,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.21271746461933</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>16.19286578342044</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -578,10 +578,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>17.95850381196586</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>13.5511734331143</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2.689122860863488e-09</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -609,13 +609,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>18.54591470160023</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>23.46430640971666</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>8.255532014288399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -628,16 +628,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>28.17704182552777</v>
+        <v>2.016951252558324</v>
       </c>
       <c r="D7" t="n">
-        <v>23.21271746461933</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>17.95850381196586</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>18.54591470160023</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>20.65093525419323</v>
+        <v>0.2031221295889138</v>
       </c>
       <c r="D8" t="n">
-        <v>16.19286578342044</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>13.5511734331143</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.46430640971666</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>21.62916983090976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>8.255532014288399</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>21.62916983090976</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
